--- a/chapter8/Chapter8-2e.xlsx
+++ b/chapter8/Chapter8-2e.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="hierarchicalClustering" sheetId="1" r:id="rId1"/>
@@ -1028,7 +1028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -1846,7 +1846,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,7 +1947,7 @@
       <c r="O2" s="7">
         <v>1</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       <c r="O3" s="7">
         <v>1</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       <c r="O4" s="7">
         <v>1</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="O5" s="7">
         <v>1</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       <c r="O6" s="7">
         <v>1</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       <c r="O7" s="7">
         <v>1</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       <c r="O8" s="7">
         <v>17</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2225,7 +2225,7 @@
       <c r="O9" s="7">
         <v>1</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       <c r="O10" s="7">
         <v>1</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       <c r="O11" s="7">
         <v>1</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -6530,7 +6530,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F7"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6616,12 +6616,10 @@
       <c r="J2" s="7">
         <v>1</v>
       </c>
-      <c r="K2" s="7">
-        <v>1</v>
-      </c>
-      <c r="L2" s="7">
-        <v>1</v>
-      </c>
+      <c r="K2" s="8">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -6654,12 +6652,10 @@
       <c r="J3" s="7">
         <v>12</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="8">
         <v>12</v>
       </c>
-      <c r="L3" s="7">
-        <v>12</v>
-      </c>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -6692,12 +6688,10 @@
       <c r="J4" s="7">
         <v>2</v>
       </c>
-      <c r="K4" s="7">
-        <v>2</v>
-      </c>
-      <c r="L4" s="7">
-        <v>2</v>
-      </c>
+      <c r="K4" s="8">
+        <v>2</v>
+      </c>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -6718,12 +6712,10 @@
       <c r="J5" s="7">
         <v>1</v>
       </c>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1</v>
-      </c>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -6744,12 +6736,10 @@
       <c r="J6" s="7">
         <v>2</v>
       </c>
-      <c r="K6" s="7">
-        <v>2</v>
-      </c>
-      <c r="L6" s="7">
-        <v>2</v>
-      </c>
+      <c r="K6" s="8">
+        <v>2</v>
+      </c>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -6782,12 +6772,10 @@
       <c r="J7" s="7">
         <v>16</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="8">
         <v>16</v>
       </c>
-      <c r="L7" s="7">
-        <v>1</v>
-      </c>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -6820,12 +6808,10 @@
       <c r="J8" s="7">
         <v>17</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="8">
         <v>17</v>
       </c>
-      <c r="L8" s="7">
-        <v>17</v>
-      </c>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -6846,12 +6832,10 @@
       <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
-      <c r="L9" s="7">
-        <v>1</v>
-      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -6872,12 +6856,10 @@
       <c r="J10" s="7">
         <v>19</v>
       </c>
-      <c r="K10" s="7">
-        <v>2</v>
-      </c>
-      <c r="L10" s="7">
-        <v>2</v>
-      </c>
+      <c r="K10" s="8">
+        <v>2</v>
+      </c>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -6910,12 +6892,10 @@
       <c r="J11" s="7">
         <v>20</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="8">
         <v>20</v>
       </c>
-      <c r="L11" s="7">
-        <v>20</v>
-      </c>
+      <c r="L11" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13">
